--- a/planilhas/automacoestemp.xlsx
+++ b/planilhas/automacoestemp.xlsx
@@ -45,8 +45,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,7 +424,14 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/planilhas/automacoestemp.xlsx
+++ b/planilhas/automacoestemp.xlsx
@@ -418,13 +418,13 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
@@ -432,7 +432,13 @@
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1"/>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/planilhas/automacoestemp.xlsx
+++ b/planilhas/automacoestemp.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,13 +432,7 @@
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
   </cols>
-  <sheetData>
-    <row r="1"/>
-    <row r="2"/>
-    <row r="3"/>
-    <row r="4"/>
-    <row r="5"/>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/planilhas/automacoestemp.xlsx
+++ b/planilhas/automacoestemp.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,7 +432,9 @@
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/planilhas/automacoestemp.xlsx
+++ b/planilhas/automacoestemp.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,9 +432,7 @@
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
   </cols>
-  <sheetData>
-    <row r="1"/>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/planilhas/automacoestemp.xlsx
+++ b/planilhas/automacoestemp.xlsx
@@ -418,13 +418,13 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
@@ -432,7 +432,11 @@
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1"/>
+    <row r="2"/>
+    <row r="3"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/planilhas/automacoestemp.xlsx
+++ b/planilhas/automacoestemp.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,8 +434,6 @@
   </cols>
   <sheetData>
     <row r="1"/>
-    <row r="2"/>
-    <row r="3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/planilhas/automacoestemp.xlsx
+++ b/planilhas/automacoestemp.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,7 +433,120 @@
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>a1</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>A/C</t>
+        </is>
+      </c>
+      <c r="C1" t="n">
+        <v>29</v>
+      </c>
+      <c r="D1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>a2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>A/C</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>l1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Lâmpada</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>52</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>l2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Lâmpada</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>t1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Televisor</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>t2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Televisor</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>68</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/planilhas/automacoestemp.xlsx
+++ b/planilhas/automacoestemp.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
@@ -463,7 +463,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -472,7 +472,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>l1</t>
+          <t>l2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -481,69 +481,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>l2</t>
+          <t>t1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lâmpada</t>
+          <t>Televisor</t>
         </is>
       </c>
       <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
         <v>0</v>
       </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>t1</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Televisor</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>t2</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Televisor</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>68</v>
-      </c>
-      <c r="E6" t="b">
+      <c r="E4" t="b">
         <v>0</v>
       </c>
     </row>

--- a/planilhas/automacoestemp.xlsx
+++ b/planilhas/automacoestemp.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,83 +432,7 @@
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
   </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>a1</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>A/C</t>
-        </is>
-      </c>
-      <c r="C1" t="n">
-        <v>16</v>
-      </c>
-      <c r="D1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>a2</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>A/C</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>l2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Lâmpada</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>50</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>t1</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Televisor</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/planilhas/automacoestemp.xlsx
+++ b/planilhas/automacoestemp.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,7 +432,119 @@
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ar2</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>A/C</t>
+        </is>
+      </c>
+      <c r="C1" t="n">
+        <v>30</v>
+      </c>
+      <c r="D1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Lâmpada</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>100</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ae</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>A/C</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>la</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Lâmpada</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>tv</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Televisor</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>A/C</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>23</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/planilhas/automacoestemp.xlsx
+++ b/planilhas/automacoestemp.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,119 +432,7 @@
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
   </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>ar2</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>A/C</t>
-        </is>
-      </c>
-      <c r="C1" t="n">
-        <v>30</v>
-      </c>
-      <c r="D1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Lâmpada</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ae</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>A/C</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>23</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>la</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Lâmpada</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>tv</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Televisor</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>A/C</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>23</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/planilhas/automacoestemp.xlsx
+++ b/planilhas/automacoestemp.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,7 +432,29 @@
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Lâmpada</t>
+        </is>
+      </c>
+      <c r="C1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/planilhas/automacoestemp.xlsx
+++ b/planilhas/automacoestemp.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,29 +432,7 @@
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
   </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Lâmpada</t>
-        </is>
-      </c>
-      <c r="C1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/planilhas/automacoestemp.xlsx
+++ b/planilhas/automacoestemp.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,7 +432,74 @@
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ar</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>A/C</t>
+        </is>
+      </c>
+      <c r="C1" t="n">
+        <v>30</v>
+      </c>
+      <c r="D1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>l2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Lâmpada</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>100</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>tv</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Televisor</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/planilhas/automacoestemp.xlsx
+++ b/planilhas/automacoestemp.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,74 +432,7 @@
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
   </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>ar</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>A/C</t>
-        </is>
-      </c>
-      <c r="C1" t="n">
-        <v>30</v>
-      </c>
-      <c r="D1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>l2</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Lâmpada</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>tv</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Televisor</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/planilhas/automacoestemp.xlsx
+++ b/planilhas/automacoestemp.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,7 +432,74 @@
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ar</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>A/C</t>
+        </is>
+      </c>
+      <c r="C1" t="n">
+        <v>16</v>
+      </c>
+      <c r="D1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>tv</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Televisor</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>lamp1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Lâmpada</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/planilhas/automacoestemp.xlsx
+++ b/planilhas/automacoestemp.xlsx
@@ -475,7 +475,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -496,7 +496,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/planilhas/automacoestemp.xlsx
+++ b/planilhas/automacoestemp.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,74 +432,7 @@
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
   </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>ar</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>A/C</t>
-        </is>
-      </c>
-      <c r="C1" t="n">
-        <v>16</v>
-      </c>
-      <c r="D1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>tv</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Televisor</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>lamp1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Lâmpada</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>